--- a/data/DNA_data/PB220522fd_batch_6_real.xlsx
+++ b/data/DNA_data/PB220522fd_batch_6_real.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\projekter\Master-thesis\data\DNA_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A28A9CA-038E-4497-B7D0-ABFF05676D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E333696-3940-4F80-AB87-C676412144F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Factor</t>
   </si>
   <si>
-    <t>T1 72 h</t>
-  </si>
-  <si>
     <t>Philip Askøe Bluming</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>22-05-2022 12:08:19</t>
   </si>
   <si>
-    <t>T2 96 h</t>
-  </si>
-  <si>
     <t>22-05-2022 12:10:21</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>22-05-2022 12:12:20</t>
   </si>
   <si>
-    <t>T3 120 h</t>
-  </si>
-  <si>
     <t>22-05-2022 12:14:47</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>22-05-2022 12:16:35</t>
   </si>
   <si>
-    <t>T4 120 h w switch</t>
-  </si>
-  <si>
     <t>22-05-2022 12:19:02</t>
   </si>
   <si>
@@ -116,6 +104,21 @@
   </si>
   <si>
     <t>Weight (mg)</t>
+  </si>
+  <si>
+    <t>PDE6 A33</t>
+  </si>
+  <si>
+    <t>PDE6 A34</t>
+  </si>
+  <si>
+    <t>PD6E A34</t>
+  </si>
+  <si>
+    <t>PDE6 A35</t>
+  </si>
+  <si>
+    <t>PDE6 A3sw5</t>
   </si>
 </sst>
 </file>
@@ -962,7 +965,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1016,19 +1019,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="E2">
         <v>260.2</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>5.2030000000000003</v>
@@ -1043,7 +1046,7 @@
         <v>1.99</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2">
         <v>50</v>
@@ -1057,19 +1060,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>257.3</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>5.1449999999999996</v>
@@ -1084,7 +1087,7 @@
         <v>1.99</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3">
         <v>50</v>
@@ -1098,19 +1101,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>259.2</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>5.1840000000000002</v>
@@ -1125,7 +1128,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4">
         <v>50</v>
@@ -1139,19 +1142,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>197.4</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>3.9489999999999998</v>
@@ -1166,7 +1169,7 @@
         <v>1.94</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <v>50</v>
@@ -1180,19 +1183,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
       <c r="E6">
         <v>198.3</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>3.9670000000000001</v>
@@ -1207,7 +1210,7 @@
         <v>1.94</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6">
         <v>50</v>
@@ -1221,19 +1224,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>199.5</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>3.99</v>
@@ -1248,7 +1251,7 @@
         <v>1.93</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7">
         <v>50</v>
@@ -1262,19 +1265,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>137.69999999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>2.754</v>
@@ -1289,7 +1292,7 @@
         <v>1.95</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8">
         <v>50</v>
@@ -1303,19 +1306,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>137.80000000000001</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>2.7549999999999999</v>
@@ -1330,7 +1333,7 @@
         <v>1.95</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L9">
         <v>50</v>
@@ -1344,19 +1347,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>2.76</v>
@@ -1371,7 +1374,7 @@
         <v>1.95</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10">
         <v>50</v>
@@ -1385,19 +1388,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>209.7</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11">
         <v>4.1929999999999996</v>
@@ -1412,7 +1415,7 @@
         <v>2.04</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11">
         <v>50</v>
@@ -1426,19 +1429,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>209.3</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>4.1859999999999999</v>
@@ -1453,7 +1456,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12">
         <v>50</v>
@@ -1467,19 +1470,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>206.2</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>4.1230000000000002</v>
@@ -1494,7 +1497,7 @@
         <v>2.02</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13">
         <v>50</v>
